--- a/Code/Results/Cases/Case_2_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9844509334075724</v>
+        <v>0.4260477207521092</v>
       </c>
       <c r="C2">
-        <v>0.08830143897842291</v>
+        <v>0.1579759249433508</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07392841109530934</v>
+        <v>0.1128041530278132</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.2159040682722591</v>
+        <v>0.4559530195518064</v>
       </c>
       <c r="H2">
-        <v>0.2303399567547828</v>
+        <v>0.6229416531491978</v>
       </c>
       <c r="I2">
-        <v>0.2412931112514549</v>
+        <v>0.6121505561376495</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7991124675624519</v>
+        <v>0.2518505838001772</v>
       </c>
       <c r="L2">
-        <v>0.2514201215222158</v>
+        <v>0.1930693293216734</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7532126999493371</v>
+        <v>1.388154561695639</v>
       </c>
       <c r="O2">
-        <v>0.8883008786573043</v>
+        <v>2.113888136218279</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8566534258352192</v>
+        <v>0.3878376787550337</v>
       </c>
       <c r="C3">
-        <v>0.08824040198900818</v>
+        <v>0.1582256093673209</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06870794650714274</v>
+        <v>0.112166094823035</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.2155282388482078</v>
+        <v>0.4599376453950299</v>
       </c>
       <c r="H3">
-        <v>0.2349504985789892</v>
+        <v>0.62785140100398</v>
       </c>
       <c r="I3">
-        <v>0.2476412342607368</v>
+        <v>0.6182506463570938</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6988301007454538</v>
+        <v>0.2201895834674303</v>
       </c>
       <c r="L3">
-        <v>0.2219822921495194</v>
+        <v>0.18580819219207</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764435254074264</v>
+        <v>1.399237856441111</v>
       </c>
       <c r="O3">
-        <v>0.896870718404287</v>
+        <v>2.132413000128949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7782008825331843</v>
+        <v>0.3644201416465762</v>
       </c>
       <c r="C4">
-        <v>0.08823583453805384</v>
+        <v>0.1584013677976337</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06559523110184884</v>
+        <v>0.1118325491951637</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.2158409959190308</v>
+        <v>0.462668222819886</v>
       </c>
       <c r="H4">
-        <v>0.2381385739386914</v>
+        <v>0.631098829088792</v>
       </c>
       <c r="I4">
-        <v>0.2520272700094583</v>
+        <v>0.6222844136200756</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6371543165428903</v>
+        <v>0.2006916284566245</v>
       </c>
       <c r="L4">
-        <v>0.2040838318194034</v>
+        <v>0.1814472532157509</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7915264120942922</v>
+        <v>1.406480081467045</v>
       </c>
       <c r="O4">
-        <v>0.9040255896359355</v>
+        <v>2.144869888573666</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7462284733239244</v>
+        <v>0.3548890312758033</v>
       </c>
       <c r="C5">
-        <v>0.0882422150480906</v>
+        <v>0.1584786612100153</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06434905760671938</v>
+        <v>0.1117113016623357</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.2160996761847258</v>
+        <v>0.4638523558582719</v>
       </c>
       <c r="H5">
-        <v>0.239525209421771</v>
+        <v>0.6324807845875853</v>
       </c>
       <c r="I5">
-        <v>0.253933750532596</v>
+        <v>0.62400072611063</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6119910556065236</v>
+        <v>0.1927320515328717</v>
       </c>
       <c r="L5">
-        <v>0.1968309595356743</v>
+        <v>0.1796947593348222</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7978744671966034</v>
+        <v>1.40954134745072</v>
       </c>
       <c r="O5">
-        <v>0.9074007911027024</v>
+        <v>2.150218472310627</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7409191592958564</v>
+        <v>0.3533071284444702</v>
       </c>
       <c r="C6">
-        <v>0.08824377139246309</v>
+        <v>0.1584918389350669</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06414344821856233</v>
+        <v>0.1116920559331227</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.2161504005377637</v>
+        <v>0.4640532922590168</v>
       </c>
       <c r="H6">
-        <v>0.239760675153299</v>
+        <v>0.6327137983490374</v>
       </c>
       <c r="I6">
-        <v>0.2542574116563117</v>
+        <v>0.6242900993030069</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6078107921197926</v>
+        <v>0.1914095411060686</v>
       </c>
       <c r="L6">
-        <v>0.1956289965564366</v>
+        <v>0.1794052499686245</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7989406138766952</v>
+        <v>1.410056315181986</v>
       </c>
       <c r="O6">
-        <v>0.9079885258619242</v>
+        <v>2.151123049359214</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7777697090697302</v>
+        <v>0.3642915532644224</v>
       </c>
       <c r="C7">
-        <v>0.08823588725874387</v>
+        <v>0.1584023872109874</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06557833586562722</v>
+        <v>0.1118308545447348</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2158439602701918</v>
+        <v>0.4626839033724437</v>
       </c>
       <c r="H7">
-        <v>0.2381569234666614</v>
+        <v>0.6311172292699183</v>
       </c>
       <c r="I7">
-        <v>0.2520525038127914</v>
+        <v>0.6223072667446043</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.636815082386434</v>
+        <v>0.2005843387493513</v>
       </c>
       <c r="L7">
-        <v>0.2039858559609087</v>
+        <v>0.1814235186021733</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7916112132435202</v>
+        <v>1.406520921243327</v>
       </c>
       <c r="O7">
-        <v>0.9040692694458272</v>
+        <v>2.144940918795328</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9403791730218813</v>
+        <v>0.4128643006413029</v>
       </c>
       <c r="C8">
-        <v>0.08827354163355849</v>
+        <v>0.1580573712338555</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07210853405791795</v>
+        <v>0.1125720859319621</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.2156583345419989</v>
+        <v>0.4572679656722514</v>
       </c>
       <c r="H8">
-        <v>0.2318540972727803</v>
+        <v>0.6245862461141272</v>
       </c>
       <c r="I8">
-        <v>0.2433783729311862</v>
+        <v>0.6141940499966232</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7645536259760775</v>
+        <v>0.2409462391084105</v>
       </c>
       <c r="L8">
-        <v>0.2412311784874248</v>
+        <v>0.1905455403637859</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7610500514782075</v>
+        <v>1.391885437347351</v>
       </c>
       <c r="O8">
-        <v>0.8908527712216596</v>
+        <v>2.120050877787946</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.259696269923438</v>
+        <v>0.5084320778462086</v>
       </c>
       <c r="C9">
-        <v>0.08861027745955496</v>
+        <v>0.157557865362417</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08569800247143178</v>
+        <v>0.1144863378555208</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2198626461142865</v>
+        <v>0.4489015444428475</v>
       </c>
       <c r="H9">
-        <v>0.2224384890237019</v>
+        <v>0.61362380990996</v>
       </c>
       <c r="I9">
-        <v>0.2304128454130492</v>
+        <v>0.6005702244997195</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.014454440024565</v>
+        <v>0.3196141614215833</v>
       </c>
       <c r="L9">
-        <v>0.3158370833117914</v>
+        <v>0.2092024335597671</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7078193619370623</v>
+        <v>1.366648203216023</v>
       </c>
       <c r="O9">
-        <v>0.8807282848026432</v>
+        <v>2.079827679649682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.495054540854255</v>
+        <v>0.5788066292675751</v>
       </c>
       <c r="C10">
-        <v>0.08902080140313728</v>
+        <v>0.1572974188669392</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0962310222121836</v>
+        <v>0.116172164177506</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2261075392458451</v>
+        <v>0.4441303154703604</v>
       </c>
       <c r="H10">
-        <v>0.2174751933663828</v>
+        <v>0.6066908643946221</v>
       </c>
       <c r="I10">
-        <v>0.223598380856906</v>
+        <v>0.5919527294900639</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.198030000824474</v>
+        <v>0.377094122093979</v>
       </c>
       <c r="L10">
-        <v>0.371854444727532</v>
+        <v>0.2233738831629921</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6730838489720696</v>
+        <v>1.350210715839609</v>
       </c>
       <c r="O10">
-        <v>0.8840388954271674</v>
+        <v>2.055505875254426</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.602405534719736</v>
+        <v>0.6108503397690583</v>
       </c>
       <c r="C11">
-        <v>0.08924369797373544</v>
+        <v>0.157201775364058</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1011584248112705</v>
+        <v>0.1169994781050683</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2297200541483733</v>
+        <v>0.4422587609627868</v>
       </c>
       <c r="H11">
-        <v>0.2156787441346921</v>
+        <v>0.6037796041147132</v>
       </c>
       <c r="I11">
-        <v>0.2211439774045765</v>
+        <v>0.5883342789417192</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.281618119058606</v>
+        <v>0.4031696088795229</v>
       </c>
       <c r="L11">
-        <v>0.3976578627816423</v>
+        <v>0.2299208075674812</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6582984085456189</v>
+        <v>1.343188399516727</v>
       </c>
       <c r="O11">
-        <v>0.8881397851470467</v>
+        <v>2.045576120813138</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.643107417151725</v>
+        <v>0.6229880722862617</v>
       </c>
       <c r="C12">
-        <v>0.08933336499839584</v>
+        <v>0.1571688168330141</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1030452649505946</v>
+        <v>0.1173214185891283</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2312065745487288</v>
+        <v>0.441593056196723</v>
       </c>
       <c r="H12">
-        <v>0.2150681023320047</v>
+        <v>0.6027120124909615</v>
       </c>
       <c r="I12">
-        <v>0.2203124027988608</v>
+        <v>0.5870074246889487</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.313288876763352</v>
+        <v>0.4130327801434248</v>
       </c>
       <c r="L12">
-        <v>0.4074800858631136</v>
+        <v>0.2324142670541107</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6528516077523321</v>
+        <v>1.340594590353476</v>
       </c>
       <c r="O12">
-        <v>0.8900887961517157</v>
+        <v>2.041979038554928</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.634339141601231</v>
+        <v>0.620373853177739</v>
       </c>
       <c r="C13">
-        <v>0.08931381855327203</v>
+        <v>0.1571757704527599</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1026379457828135</v>
+        <v>0.1172516985730034</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2308810286756398</v>
+        <v>0.4417345141644162</v>
       </c>
       <c r="H13">
-        <v>0.2151964636349248</v>
+        <v>0.6029403886211711</v>
       </c>
       <c r="I13">
-        <v>0.2204870622457271</v>
+        <v>0.5872912575376148</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.30646711548448</v>
+        <v>0.4109090712591978</v>
       </c>
       <c r="L13">
-        <v>0.4053623439670844</v>
+        <v>0.2318766229506508</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6540178084558548</v>
+        <v>1.341150306351402</v>
       </c>
       <c r="O13">
-        <v>0.8896510463870442</v>
+        <v>2.042746480962307</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.60575303732432</v>
+        <v>0.6118488534738447</v>
       </c>
       <c r="C14">
-        <v>0.08925096911522701</v>
+        <v>0.1571989986557867</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1013132283392366</v>
+        <v>0.1170257910863981</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2298399305122842</v>
+        <v>0.4422031308274583</v>
       </c>
       <c r="H14">
-        <v>0.2156270911984492</v>
+        <v>0.6036910747143054</v>
       </c>
       <c r="I14">
-        <v>0.221073572359483</v>
+        <v>0.5882242486037335</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.284223297074789</v>
+        <v>0.4039812829952893</v>
       </c>
       <c r="L14">
-        <v>0.398464891275438</v>
+        <v>0.230125660543635</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6578472124530208</v>
+        <v>1.342973695132883</v>
       </c>
       <c r="O14">
-        <v>0.8882920571811468</v>
+        <v>2.04527691802987</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.588250073917635</v>
+        <v>0.6066274727253642</v>
       </c>
       <c r="C15">
-        <v>0.08921315911748451</v>
+        <v>0.1572136503841932</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1005045704353478</v>
+        <v>0.11688854230378</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.2292178969882031</v>
+        <v>0.4424957744352795</v>
       </c>
       <c r="H15">
-        <v>0.2159000322020859</v>
+        <v>0.6041554275051197</v>
       </c>
       <c r="I15">
-        <v>0.2214457240677667</v>
+        <v>0.5888013809535018</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.270600826691123</v>
+        <v>0.3997363548554915</v>
       </c>
       <c r="L15">
-        <v>0.3942467977446569</v>
+        <v>0.2290550013053121</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6602128286659052</v>
+        <v>1.344099087189143</v>
       </c>
       <c r="O15">
-        <v>0.8875119228223554</v>
+        <v>2.046848123691944</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.488045428590283</v>
+        <v>0.5767130291659157</v>
       </c>
       <c r="C16">
-        <v>0.08900696721681811</v>
+        <v>0.1573041268337931</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0959118571662394</v>
+        <v>0.1161193102223521</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2258876190784704</v>
+        <v>0.4442586432543081</v>
       </c>
       <c r="H16">
-        <v>0.2176021567110169</v>
+        <v>0.6068859996612801</v>
       </c>
       <c r="I16">
-        <v>0.2237721954764353</v>
+        <v>0.5921952738260217</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.192569443839602</v>
+        <v>0.3753885159603954</v>
       </c>
       <c r="L16">
-        <v>0.3701749987009038</v>
+        <v>0.2229480321472153</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6740710640446537</v>
+        <v>1.350678794525074</v>
       </c>
       <c r="O16">
-        <v>0.8838250418580174</v>
+        <v>2.056177632621512</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.426652670718681</v>
+        <v>0.5583685696319378</v>
       </c>
       <c r="C17">
-        <v>0.088889776349248</v>
+        <v>0.1573654626175696</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09313015200820018</v>
+        <v>0.1156628628497955</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2240475070815435</v>
+        <v>0.4454166840110574</v>
       </c>
       <c r="H17">
-        <v>0.2187668088932071</v>
+        <v>0.6086232156267712</v>
       </c>
       <c r="I17">
-        <v>0.2253682417949854</v>
+        <v>0.5943545815783793</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.144724306639603</v>
+        <v>0.3604329021139563</v>
       </c>
       <c r="L17">
-        <v>0.3554932987709662</v>
+        <v>0.219227187021005</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6828370405259676</v>
+        <v>1.354831767530975</v>
       </c>
       <c r="O17">
-        <v>0.8822438107623327</v>
+        <v>2.062191506926766</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.391367440492729</v>
+        <v>0.5478201929443571</v>
       </c>
       <c r="C18">
-        <v>0.08882576949403997</v>
+        <v>0.1574028920972168</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09154289030606932</v>
+        <v>0.1154060157525656</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2230612805185643</v>
+        <v>0.4461108906556959</v>
       </c>
       <c r="H18">
-        <v>0.2194799058689796</v>
+        <v>0.6096452507687289</v>
       </c>
       <c r="I18">
-        <v>0.2263466896150241</v>
+        <v>0.5956249553922213</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.117212042245171</v>
+        <v>0.3518240484627029</v>
       </c>
       <c r="L18">
-        <v>0.3470786632171894</v>
+        <v>0.2170965005356891</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6879742416861205</v>
+        <v>1.35726329510203</v>
       </c>
       <c r="O18">
-        <v>0.881577124054516</v>
+        <v>2.065757300537115</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.379424702948484</v>
+        <v>0.5442492124399507</v>
       </c>
       <c r="C19">
-        <v>0.08880467969528283</v>
+        <v>0.1574159352047353</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0910076107687523</v>
+        <v>0.1153200299274317</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2227395301393997</v>
+        <v>0.4463507678911185</v>
       </c>
       <c r="H19">
-        <v>0.2197286740081807</v>
+        <v>0.6099952174320649</v>
       </c>
       <c r="I19">
-        <v>0.2266882076233792</v>
+        <v>0.5960599596220852</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.10789787453237</v>
+        <v>0.3489080933506727</v>
       </c>
       <c r="L19">
-        <v>0.34423460123962</v>
+        <v>0.2163767130608534</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6897297890184575</v>
+        <v>1.358093929633007</v>
       </c>
       <c r="O19">
-        <v>0.8813924166182687</v>
+        <v>2.066982955768466</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.43318525092991</v>
+        <v>0.5603210775540788</v>
       </c>
       <c r="C20">
-        <v>0.08890189937509163</v>
+        <v>0.1573587108970784</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09342494479662733</v>
+        <v>0.1157108638711577</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2242358686049357</v>
+        <v>0.4452904967918059</v>
       </c>
       <c r="H20">
-        <v>0.2186383333406354</v>
+        <v>0.6084359230448584</v>
       </c>
       <c r="I20">
-        <v>0.2251920486081112</v>
+        <v>0.5941217806486812</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.149816734226647</v>
+        <v>0.3620256590457132</v>
       </c>
       <c r="L20">
-        <v>0.3570530627385438</v>
+        <v>0.2196223007755549</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.681893987313444</v>
+        <v>1.354385242400546</v>
       </c>
       <c r="O20">
-        <v>0.8823868448002372</v>
+        <v>2.061540269355802</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.614148023777517</v>
+        <v>0.6143527648893041</v>
       </c>
       <c r="C21">
-        <v>0.0892692862077098</v>
+        <v>0.157192087696842</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1017017501411637</v>
+        <v>0.1170919109793083</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2301424467369344</v>
+        <v>0.4420643191712941</v>
       </c>
       <c r="H21">
-        <v>0.2154986884671928</v>
+        <v>0.6034696348124271</v>
       </c>
       <c r="I21">
-        <v>0.2208986029811868</v>
+        <v>0.5879490294089678</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.290756310375798</v>
+        <v>0.4060164472733447</v>
       </c>
       <c r="L21">
-        <v>0.400489415043964</v>
+        <v>0.2306395741449734</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6567182453677631</v>
+        <v>1.342436347496637</v>
       </c>
       <c r="O21">
-        <v>0.8886802861938321</v>
+        <v>2.04452924098517</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.732716173942549</v>
+        <v>0.6496854620086481</v>
       </c>
       <c r="C22">
-        <v>0.08954009296704868</v>
+        <v>0.157102178121832</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1072338768079533</v>
+        <v>0.1180449350744581</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2346974931046688</v>
+        <v>0.4402065480148352</v>
       </c>
       <c r="H22">
-        <v>0.2138542916226598</v>
+        <v>0.6004269300718263</v>
       </c>
       <c r="I22">
-        <v>0.2186654872938085</v>
+        <v>0.5841675951117082</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.382975262057016</v>
+        <v>0.4347022705865129</v>
       </c>
       <c r="L22">
-        <v>0.4291774905602637</v>
+        <v>0.2379231777914725</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6411541733340513</v>
+        <v>1.335008166214585</v>
       </c>
       <c r="O22">
-        <v>0.8951137216410672</v>
+        <v>2.034362214245562</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.669403548366859</v>
+        <v>0.6308261949151586</v>
       </c>
       <c r="C23">
-        <v>0.08939272705320889</v>
+        <v>0.1571484350274801</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1042695624841876</v>
+        <v>0.117531685156429</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2322001970494583</v>
+        <v>0.4411751243653441</v>
       </c>
       <c r="H23">
-        <v>0.2146935122224036</v>
+        <v>0.6020323134324883</v>
       </c>
       <c r="I23">
-        <v>0.2198031914149325</v>
+        <v>0.5861626879215045</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.33374425219003</v>
+        <v>0.4193982361356632</v>
       </c>
       <c r="L23">
-        <v>0.4138369928719214</v>
+        <v>0.234028215778892</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6493775229214265</v>
+        <v>1.338937875359157</v>
       </c>
       <c r="O23">
-        <v>0.8914598501605582</v>
+        <v>2.039701568417897</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.430231840083763</v>
+        <v>0.5594383545854384</v>
       </c>
       <c r="C24">
-        <v>0.0888964080699246</v>
+        <v>0.1573617565998262</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09329163177438105</v>
+        <v>0.1156891452554447</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2241504876661793</v>
+        <v>0.4453474574679248</v>
       </c>
       <c r="H24">
-        <v>0.2186962818203781</v>
+        <v>0.6085205254827954</v>
       </c>
       <c r="I24">
-        <v>0.2252715163613317</v>
+        <v>0.5942269397439865</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.147514465195087</v>
+        <v>0.3613056068306832</v>
       </c>
       <c r="L24">
-        <v>0.3563478126153541</v>
+        <v>0.2194436434326406</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6823200383568562</v>
+        <v>1.354586979575032</v>
       </c>
       <c r="O24">
-        <v>0.8823214258608232</v>
+        <v>2.061834356400468</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.173216827607632</v>
+        <v>0.482547879190065</v>
       </c>
       <c r="C25">
-        <v>0.08849075833304809</v>
+        <v>0.1576741843154217</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08193065155337464</v>
+        <v>0.113919308030372</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2181990158662259</v>
+        <v>0.4509234124257944</v>
       </c>
       <c r="H25">
-        <v>0.2246544888976061</v>
+        <v>0.6163923019279594</v>
       </c>
       <c r="I25">
-        <v>0.2334627307781361</v>
+        <v>0.6040112643502056</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9468799017744516</v>
+        <v>0.2983864221097861</v>
       </c>
       <c r="L25">
-        <v>0.2954614589241942</v>
+        <v>0.2040734088432856</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7214735137299044</v>
+        <v>1.373105524562781</v>
       </c>
       <c r="O25">
-        <v>0.8816641274317476</v>
+        <v>2.089790345815814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4260477207521092</v>
+        <v>0.9844509334076861</v>
       </c>
       <c r="C2">
-        <v>0.1579759249433508</v>
+        <v>0.0883014389784158</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1128041530278132</v>
+        <v>0.07392841109532711</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.4559530195518064</v>
+        <v>0.2159040682722519</v>
       </c>
       <c r="H2">
-        <v>0.6229416531491978</v>
+        <v>0.2303399567548894</v>
       </c>
       <c r="I2">
-        <v>0.6121505561376495</v>
+        <v>0.2412931112514443</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2518505838001772</v>
+        <v>0.7991124675623666</v>
       </c>
       <c r="L2">
-        <v>0.1930693293216734</v>
+        <v>0.2514201215222869</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.388154561695639</v>
+        <v>0.7532126999493158</v>
       </c>
       <c r="O2">
-        <v>2.113888136218279</v>
+        <v>0.888300878657347</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3878376787550337</v>
+        <v>0.8566534258351339</v>
       </c>
       <c r="C3">
-        <v>0.1582256093673209</v>
+        <v>0.08824040198895844</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.112166094823035</v>
+        <v>0.06870794650711431</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.4599376453950299</v>
+        <v>0.2155282388482078</v>
       </c>
       <c r="H3">
-        <v>0.62785140100398</v>
+        <v>0.2349504985789821</v>
       </c>
       <c r="I3">
-        <v>0.6182506463570938</v>
+        <v>0.247641234260735</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2201895834674303</v>
+        <v>0.6988301007453401</v>
       </c>
       <c r="L3">
-        <v>0.18580819219207</v>
+        <v>0.2219822921494483</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.399237856441111</v>
+        <v>0.7764435254074087</v>
       </c>
       <c r="O3">
-        <v>2.132413000128949</v>
+        <v>0.8968707184043012</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3644201416465762</v>
+        <v>0.7782008825331843</v>
       </c>
       <c r="C4">
-        <v>0.1584013677976337</v>
+        <v>0.08823583453800765</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1118325491951637</v>
+        <v>0.06559523110184884</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.462668222819886</v>
+        <v>0.2158409959189598</v>
       </c>
       <c r="H4">
-        <v>0.631098829088792</v>
+        <v>0.2381385739386985</v>
       </c>
       <c r="I4">
-        <v>0.6222844136200756</v>
+        <v>0.2520272700094441</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2006916284566245</v>
+        <v>0.6371543165427624</v>
       </c>
       <c r="L4">
-        <v>0.1814472532157509</v>
+        <v>0.2040838318195313</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.406480081467045</v>
+        <v>0.7915264120942851</v>
       </c>
       <c r="O4">
-        <v>2.144869888573666</v>
+        <v>0.9040255896359355</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3548890312758033</v>
+        <v>0.7462284733239244</v>
       </c>
       <c r="C5">
-        <v>0.1584786612100153</v>
+        <v>0.08824221504785967</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1117113016623357</v>
+        <v>0.06434905760673715</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.4638523558582719</v>
+        <v>0.2160996761846761</v>
       </c>
       <c r="H5">
-        <v>0.6324807845875853</v>
+        <v>0.239525209421771</v>
       </c>
       <c r="I5">
-        <v>0.62400072611063</v>
+        <v>0.2539337505326174</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1927320515328717</v>
+        <v>0.6119910556066088</v>
       </c>
       <c r="L5">
-        <v>0.1796947593348222</v>
+        <v>0.1968309595357027</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.40954134745072</v>
+        <v>0.7978744671966069</v>
       </c>
       <c r="O5">
-        <v>2.150218472310627</v>
+        <v>0.9074007911027167</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3533071284444702</v>
+        <v>0.7409191592957711</v>
       </c>
       <c r="C6">
-        <v>0.1584918389350669</v>
+        <v>0.08824377139217532</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1116920559331227</v>
+        <v>0.06414344821856588</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.4640532922590168</v>
+        <v>0.2161504005377566</v>
       </c>
       <c r="H6">
-        <v>0.6327137983490374</v>
+        <v>0.239760675153299</v>
       </c>
       <c r="I6">
-        <v>0.6242900993030069</v>
+        <v>0.2542574116563081</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1914095411060686</v>
+        <v>0.6078107921197926</v>
       </c>
       <c r="L6">
-        <v>0.1794052499686245</v>
+        <v>0.195628996556394</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.410056315181986</v>
+        <v>0.7989406138767485</v>
       </c>
       <c r="O6">
-        <v>2.151123049359214</v>
+        <v>0.9079885258619242</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3642915532644224</v>
+        <v>0.7777697090698439</v>
       </c>
       <c r="C7">
-        <v>0.1584023872109874</v>
+        <v>0.08823588725879361</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1118308545447348</v>
+        <v>0.06557833586565565</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.4626839033724437</v>
+        <v>0.2158439602701847</v>
       </c>
       <c r="H7">
-        <v>0.6311172292699183</v>
+        <v>0.2381569234666614</v>
       </c>
       <c r="I7">
-        <v>0.6223072667446043</v>
+        <v>0.2520525038127968</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2005843387493513</v>
+        <v>0.6368150823863488</v>
       </c>
       <c r="L7">
-        <v>0.1814235186021733</v>
+        <v>0.2039858559608803</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.406520921243327</v>
+        <v>0.7916112132435202</v>
       </c>
       <c r="O7">
-        <v>2.144940918795328</v>
+        <v>0.9040692694457704</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4128643006413029</v>
+        <v>0.9403791730217961</v>
       </c>
       <c r="C8">
-        <v>0.1580573712338555</v>
+        <v>0.08827354163379653</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1125720859319621</v>
+        <v>0.07210853405791795</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.4572679656722514</v>
+        <v>0.2156583345419207</v>
       </c>
       <c r="H8">
-        <v>0.6245862461141272</v>
+        <v>0.2318540972727803</v>
       </c>
       <c r="I8">
-        <v>0.6141940499966232</v>
+        <v>0.2433783729311862</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2409462391084105</v>
+        <v>0.7645536259762054</v>
       </c>
       <c r="L8">
-        <v>0.1905455403637859</v>
+        <v>0.2412311784873111</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.391885437347351</v>
+        <v>0.7610500514782714</v>
       </c>
       <c r="O8">
-        <v>2.120050877787946</v>
+        <v>0.8908527712216596</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5084320778462086</v>
+        <v>1.259696269923296</v>
       </c>
       <c r="C9">
-        <v>0.157557865362417</v>
+        <v>0.08861027745954786</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1144863378555208</v>
+        <v>0.08569800247139625</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.4489015444428475</v>
+        <v>0.2198626461142226</v>
       </c>
       <c r="H9">
-        <v>0.61362380990996</v>
+        <v>0.2224384890237019</v>
       </c>
       <c r="I9">
-        <v>0.6005702244997195</v>
+        <v>0.2304128454130563</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3196141614215833</v>
+        <v>1.014454440024736</v>
       </c>
       <c r="L9">
-        <v>0.2092024335597671</v>
+        <v>0.315837083311763</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.366648203216023</v>
+        <v>0.7078193619370481</v>
       </c>
       <c r="O9">
-        <v>2.079827679649682</v>
+        <v>0.8807282848027143</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5788066292675751</v>
+        <v>1.495054540854227</v>
       </c>
       <c r="C10">
-        <v>0.1572974188669392</v>
+        <v>0.08902080140349256</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.116172164177506</v>
+        <v>0.09623102221219426</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.4441303154703604</v>
+        <v>0.2261075392458878</v>
       </c>
       <c r="H10">
-        <v>0.6066908643946221</v>
+        <v>0.2174751933662691</v>
       </c>
       <c r="I10">
-        <v>0.5919527294900639</v>
+        <v>0.2235983808569024</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.377094122093979</v>
+        <v>1.198030000824531</v>
       </c>
       <c r="L10">
-        <v>0.2233738831629921</v>
+        <v>0.3718544447274894</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.350210715839609</v>
+        <v>0.6730838489721052</v>
       </c>
       <c r="O10">
-        <v>2.055505875254426</v>
+        <v>0.8840388954271532</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6108503397690583</v>
+        <v>1.602405534719765</v>
       </c>
       <c r="C11">
-        <v>0.157201775364058</v>
+        <v>0.08924369797372123</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1169994781050683</v>
+        <v>0.1011584248112349</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.4422587609627868</v>
+        <v>0.2297200541483093</v>
       </c>
       <c r="H11">
-        <v>0.6037796041147132</v>
+        <v>0.2156787441346992</v>
       </c>
       <c r="I11">
-        <v>0.5883342789417192</v>
+        <v>0.2211439774045871</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4031696088795229</v>
+        <v>1.281618119058635</v>
       </c>
       <c r="L11">
-        <v>0.2299208075674812</v>
+        <v>0.3976578627815996</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.343188399516727</v>
+        <v>0.6582984085455621</v>
       </c>
       <c r="O11">
-        <v>2.045576120813138</v>
+        <v>0.8881397851470467</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6229880722862617</v>
+        <v>1.643107417151725</v>
       </c>
       <c r="C12">
-        <v>0.1571688168330141</v>
+        <v>0.08933336499839584</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1173214185891283</v>
+        <v>0.1030452649506231</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.441593056196723</v>
+        <v>0.2312065745487146</v>
       </c>
       <c r="H12">
-        <v>0.6027120124909615</v>
+        <v>0.2150681023320118</v>
       </c>
       <c r="I12">
-        <v>0.5870074246889487</v>
+        <v>0.220312402798843</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4130327801434248</v>
+        <v>1.313288876763266</v>
       </c>
       <c r="L12">
-        <v>0.2324142670541107</v>
+        <v>0.4074800858631988</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.340594590353476</v>
+        <v>0.6528516077523321</v>
       </c>
       <c r="O12">
-        <v>2.041979038554928</v>
+        <v>0.8900887961517157</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.620373853177739</v>
+        <v>1.634339141601203</v>
       </c>
       <c r="C13">
-        <v>0.1571757704527599</v>
+        <v>0.08931381855304465</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1172516985730034</v>
+        <v>0.1026379457827993</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.4417345141644162</v>
+        <v>0.2308810286756469</v>
       </c>
       <c r="H13">
-        <v>0.6029403886211711</v>
+        <v>0.2151964636349319</v>
       </c>
       <c r="I13">
-        <v>0.5872912575376148</v>
+        <v>0.2204870622457165</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4109090712591978</v>
+        <v>1.306467115484452</v>
       </c>
       <c r="L13">
-        <v>0.2318766229506508</v>
+        <v>0.4053623439670559</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.341150306351402</v>
+        <v>0.6540178084558548</v>
       </c>
       <c r="O13">
-        <v>2.042746480962307</v>
+        <v>0.8896510463870584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6118488534738447</v>
+        <v>1.605753037324291</v>
       </c>
       <c r="C14">
-        <v>0.1571989986557867</v>
+        <v>0.0892509691152199</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1170257910863981</v>
+        <v>0.101313228339265</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.4422031308274583</v>
+        <v>0.2298399305123979</v>
       </c>
       <c r="H14">
-        <v>0.6036910747143054</v>
+        <v>0.2156270911984564</v>
       </c>
       <c r="I14">
-        <v>0.5882242486037335</v>
+        <v>0.2210735723594972</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4039812829952893</v>
+        <v>1.284223297074789</v>
       </c>
       <c r="L14">
-        <v>0.230125660543635</v>
+        <v>0.3984648912753102</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.342973695132883</v>
+        <v>0.6578472124530848</v>
       </c>
       <c r="O14">
-        <v>2.04527691802987</v>
+        <v>0.888292057181161</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6066274727253642</v>
+        <v>1.588250073917663</v>
       </c>
       <c r="C15">
-        <v>0.1572136503841932</v>
+        <v>0.0892131591176053</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.11688854230378</v>
+        <v>0.1005045704353122</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.4424957744352795</v>
+        <v>0.2292178969882386</v>
       </c>
       <c r="H15">
-        <v>0.6041554275051197</v>
+        <v>0.2159000322020859</v>
       </c>
       <c r="I15">
-        <v>0.5888013809535018</v>
+        <v>0.221445724067749</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3997363548554915</v>
+        <v>1.270600826691037</v>
       </c>
       <c r="L15">
-        <v>0.2290550013053121</v>
+        <v>0.3942467977446427</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.344099087189143</v>
+        <v>0.6602128286658981</v>
       </c>
       <c r="O15">
-        <v>2.046848123691944</v>
+        <v>0.8875119228222985</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5767130291659157</v>
+        <v>1.488045428590397</v>
       </c>
       <c r="C16">
-        <v>0.1573041268337931</v>
+        <v>0.08900696721686785</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1161193102223521</v>
+        <v>0.09591185716624295</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.4442586432543081</v>
+        <v>0.2258876190785273</v>
       </c>
       <c r="H16">
-        <v>0.6068859996612801</v>
+        <v>0.2176021567110098</v>
       </c>
       <c r="I16">
-        <v>0.5921952738260217</v>
+        <v>0.2237721954764176</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3753885159603954</v>
+        <v>1.192569443839602</v>
       </c>
       <c r="L16">
-        <v>0.2229480321472153</v>
+        <v>0.3701749987008895</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.350678794525074</v>
+        <v>0.6740710640446039</v>
       </c>
       <c r="O16">
-        <v>2.056177632621512</v>
+        <v>0.8838250418580031</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5583685696319378</v>
+        <v>1.426652670718681</v>
       </c>
       <c r="C17">
-        <v>0.1573654626175696</v>
+        <v>0.08888977634930129</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1156628628497955</v>
+        <v>0.09313015200819663</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.4454166840110574</v>
+        <v>0.2240475070815435</v>
       </c>
       <c r="H17">
-        <v>0.6086232156267712</v>
+        <v>0.2187668088932071</v>
       </c>
       <c r="I17">
-        <v>0.5943545815783793</v>
+        <v>0.2253682417949889</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3604329021139563</v>
+        <v>1.14472430663966</v>
       </c>
       <c r="L17">
-        <v>0.219227187021005</v>
+        <v>0.355493298770952</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.354831767530975</v>
+        <v>0.6828370405259818</v>
       </c>
       <c r="O17">
-        <v>2.062191506926766</v>
+        <v>0.8822438107623896</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5478201929443571</v>
+        <v>1.391367440492644</v>
       </c>
       <c r="C18">
-        <v>0.1574028920972168</v>
+        <v>0.08882576949403642</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1154060157525656</v>
+        <v>0.09154289030606932</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.4461108906556959</v>
+        <v>0.2230612805185075</v>
       </c>
       <c r="H18">
-        <v>0.6096452507687289</v>
+        <v>0.2194799058690933</v>
       </c>
       <c r="I18">
-        <v>0.5956249553922213</v>
+        <v>0.2263466896150064</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3518240484627029</v>
+        <v>1.117212042245228</v>
       </c>
       <c r="L18">
-        <v>0.2170965005356891</v>
+        <v>0.347078663217232</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.35726329510203</v>
+        <v>0.6879742416860566</v>
       </c>
       <c r="O18">
-        <v>2.065757300537115</v>
+        <v>0.8815771240545587</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5442492124399507</v>
+        <v>1.379424702948455</v>
       </c>
       <c r="C19">
-        <v>0.1574159352047353</v>
+        <v>0.08880467969527928</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1153200299274317</v>
+        <v>0.09100761076876651</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.4463507678911185</v>
+        <v>0.2227395301394068</v>
       </c>
       <c r="H19">
-        <v>0.6099952174320649</v>
+        <v>0.2197286740081807</v>
       </c>
       <c r="I19">
-        <v>0.5960599596220852</v>
+        <v>0.2266882076233792</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3489080933506727</v>
+        <v>1.107897874532398</v>
       </c>
       <c r="L19">
-        <v>0.2163767130608534</v>
+        <v>0.344234601239819</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.358093929633007</v>
+        <v>0.6897297890184433</v>
       </c>
       <c r="O19">
-        <v>2.066982955768466</v>
+        <v>0.8813924166181977</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5603210775540788</v>
+        <v>1.433185250929796</v>
       </c>
       <c r="C20">
-        <v>0.1573587108970784</v>
+        <v>0.08890189937503834</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1157108638711577</v>
+        <v>0.09342494479668773</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.4452904967918059</v>
+        <v>0.224235868604957</v>
       </c>
       <c r="H20">
-        <v>0.6084359230448584</v>
+        <v>0.2186383333407491</v>
       </c>
       <c r="I20">
-        <v>0.5941217806486812</v>
+        <v>0.2251920486081112</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3620256590457132</v>
+        <v>1.149816734226619</v>
       </c>
       <c r="L20">
-        <v>0.2196223007755549</v>
+        <v>0.3570530627384443</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.354385242400546</v>
+        <v>0.6818939873134511</v>
       </c>
       <c r="O20">
-        <v>2.061540269355802</v>
+        <v>0.882386844800223</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6143527648893041</v>
+        <v>1.614148023777432</v>
       </c>
       <c r="C21">
-        <v>0.157192087696842</v>
+        <v>0.08926928620747532</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1170919109793083</v>
+        <v>0.101701750141153</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.4420643191712941</v>
+        <v>0.2301424467368065</v>
       </c>
       <c r="H21">
-        <v>0.6034696348124271</v>
+        <v>0.2154986884671928</v>
       </c>
       <c r="I21">
-        <v>0.5879490294089678</v>
+        <v>0.2208986029811868</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4060164472733447</v>
+        <v>1.290756310375912</v>
       </c>
       <c r="L21">
-        <v>0.2306395741449734</v>
+        <v>0.4004894150438929</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.342436347496637</v>
+        <v>0.6567182453677489</v>
       </c>
       <c r="O21">
-        <v>2.04452924098517</v>
+        <v>0.8886802861938321</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6496854620086481</v>
+        <v>1.732716173942634</v>
       </c>
       <c r="C22">
-        <v>0.157102178121832</v>
+        <v>0.08954009296745369</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1180449350744581</v>
+        <v>0.1072338768079959</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.4402065480148352</v>
+        <v>0.2346974931046617</v>
       </c>
       <c r="H22">
-        <v>0.6004269300718263</v>
+        <v>0.213854291622539</v>
       </c>
       <c r="I22">
-        <v>0.5841675951117082</v>
+        <v>0.2186654872937979</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4347022705865129</v>
+        <v>1.382975262056959</v>
       </c>
       <c r="L22">
-        <v>0.2379231777914725</v>
+        <v>0.4291774905602637</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.335008166214585</v>
+        <v>0.6411541733340371</v>
       </c>
       <c r="O22">
-        <v>2.034362214245562</v>
+        <v>0.8951137216410672</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6308261949151586</v>
+        <v>1.669403548366915</v>
       </c>
       <c r="C23">
-        <v>0.1571484350274801</v>
+        <v>0.08939272705290335</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.117531685156429</v>
+        <v>0.1042695624841876</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.4411751243653441</v>
+        <v>0.2322001970495151</v>
       </c>
       <c r="H23">
-        <v>0.6020323134324883</v>
+        <v>0.2146935122223965</v>
       </c>
       <c r="I23">
-        <v>0.5861626879215045</v>
+        <v>0.219803191414929</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4193982361356632</v>
+        <v>1.333744252190058</v>
       </c>
       <c r="L23">
-        <v>0.234028215778892</v>
+        <v>0.4138369928718504</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.338937875359157</v>
+        <v>0.6493775229214194</v>
       </c>
       <c r="O23">
-        <v>2.039701568417897</v>
+        <v>0.8914598501604871</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5594383545854384</v>
+        <v>1.430231840083849</v>
       </c>
       <c r="C24">
-        <v>0.1573617565998262</v>
+        <v>0.08889640807015553</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1156891452554447</v>
+        <v>0.09329163177436683</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.4453474574679248</v>
+        <v>0.224150487666158</v>
       </c>
       <c r="H24">
-        <v>0.6085205254827954</v>
+        <v>0.2186962818204918</v>
       </c>
       <c r="I24">
-        <v>0.5942269397439865</v>
+        <v>0.2252715163613495</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3613056068306832</v>
+        <v>1.147514465195087</v>
       </c>
       <c r="L24">
-        <v>0.2194436434326406</v>
+        <v>0.3563478126154109</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.354586979575032</v>
+        <v>0.6823200383567922</v>
       </c>
       <c r="O24">
-        <v>2.061834356400468</v>
+        <v>0.8823214258608374</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.482547879190065</v>
+        <v>1.17321682760749</v>
       </c>
       <c r="C25">
-        <v>0.1576741843154217</v>
+        <v>0.08849075833333941</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.113919308030372</v>
+        <v>0.08193065155341372</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.4509234124257944</v>
+        <v>0.2181990158662117</v>
       </c>
       <c r="H25">
-        <v>0.6163923019279594</v>
+        <v>0.2246544888976132</v>
       </c>
       <c r="I25">
-        <v>0.6040112643502056</v>
+        <v>0.2334627307781396</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2983864221097861</v>
+        <v>0.9468799017744232</v>
       </c>
       <c r="L25">
-        <v>0.2040734088432856</v>
+        <v>0.2954614589242084</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.373105524562781</v>
+        <v>0.72147351372994</v>
       </c>
       <c r="O25">
-        <v>2.089790345815814</v>
+        <v>0.8816641274317476</v>
       </c>
     </row>
   </sheetData>
